--- a/metadata/histology/todo/Vanderbilt TMC (Histology).xlsx
+++ b/metadata/histology/todo/Vanderbilt TMC (Histology).xlsx
@@ -13,7 +13,6 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$408</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$80</definedName>
   </definedNames>
@@ -420,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +448,6 @@
           <t>hour</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>SBB</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,11 +470,6 @@
           <t>month</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Trichrome</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
@@ -488,11 +477,6 @@
           <t>year</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PAS</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="D4" t="inlineStr">
@@ -500,35 +484,11 @@
           <t>day</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>AB-PAS</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
           <t>minute</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>H&amp;E</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LFB</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>H-DAB</t>
         </is>
       </c>
     </row>
@@ -543,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,220 +538,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HBM276.PGFS.693</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>stain_name</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Periodic acid-Schiff </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.PGFS.693</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HBM623.RPMC.638</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>stain_name</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Periodic acid-Schiff </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HBM636.GVWP.354</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>stain_name</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Periodic acid-Schiff </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HBM636.ZPTS.368</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>stain_name</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Periodic acid-Schiff </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HBM676.SNVK.793</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>stain_name</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Periodic acid-Schiff </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HBM783.GJWP.694</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>stain_name</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Periodic acid-Schiff </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HBM833.DBGG.252</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>stain_name</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Periodic acid-Schiff </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HBM875.QHDJ.259</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>stain_name</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Periodic acid-Schiff </t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HBM879.CDHB.995</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>stain_name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Periodic acid-Schiff </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E10"/>
-  <dataValidations count="1">
-    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$7</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/metadata/histology/todo/Vanderbilt TMC (Histology).xlsx
+++ b/metadata/histology/todo/Vanderbilt TMC (Histology).xlsx
@@ -13,7 +13,8 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$408</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$331</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$80</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +539,1784 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HBM227.THVC.544</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM227.THVC.544</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HBM264.XSVF.528</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.XSVF.528</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HBM276.PGFS.693</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.PGFS.693</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HBM296.RLWW.755</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM296.RLWW.755</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HBM297.RSTP.985</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM297.RSTP.985</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HBM324.MKTZ.248</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM324.MKTZ.248</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HBM324.ZGZM.874</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM324.ZGZM.874</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HBM325.RVSR.229</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM325.RVSR.229</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HBM337.ZVPK.369</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM337.ZVPK.369</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HBM338.RFPS.979</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM338.RFPS.979</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HBM344.LLLV.539</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.LLLV.539</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HBM346.WRZP.637</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM346.WRZP.637</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HBM362.PTQJ.743</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HBM389.KJJP.875</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.KJJP.875</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HBM389.MBWW.346</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HBM396.KGDR.538</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HBM396.XMSB.623</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.XMSB.623</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HBM428.QSKJ.486</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM428.QSKJ.486</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HBM463.JRTB.582</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HBM473.FKKH.583</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HBM484.RDZR.494</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM484.RDZR.494</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HBM486.KPCH.364</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM486.KPCH.364</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HBM528.QSDN.323</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM528.QSDN.323</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HBM535.BDNV.724</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM535.BDNV.724</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HBM538.XVLP.889</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM538.XVLP.889</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HBM593.DVGN.469</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM593.DVGN.469</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HBM594.SRGW.833</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.SRGW.833</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HBM623.BNWW.574</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.BNWW.574</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HBM623.RPMC.638</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HBM627.RSGW.898</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM627.RSGW.898</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HBM635.BSPV.599</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM635.BSPV.599</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HBM636.GVWP.354</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HBM636.ZPTS.368</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HBM649.DLZF.463</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM649.DLZF.463</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HBM649.XFQG.775</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM649.XFQG.775</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HBM653.BLLX.289</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM653.BLLX.289</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HBM654.GRHB.837</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM654.GRHB.837</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HBM655.VSLD.867</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM655.VSLD.867</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HBM662.PMPZ.644</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HBM673.JJRZ.435</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM673.JJRZ.435</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HBM676.SNVK.793</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HBM685.HZFG.838</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM685.HZFG.838</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HBM725.PDDC.788</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HBM738.MXDD.328</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM738.MXDD.328</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>HBM745.BCRF.958</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM745.BCRF.958</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>HBM759.LQKN.226</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM759.LQKN.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HBM783.GDKK.879</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>HBM783.GJWP.694</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HBM796.FZWQ.899</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM796.FZWQ.899</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HBM832.FQKR.463</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.FQKR.463</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>HBM833.DBGG.252</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HBM836.VTFP.364</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM836.VTFP.364</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HBM837.XGBD.427</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM837.XGBD.427</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HBM838.HGWL.498</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM838.HGWL.498</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HBM846.FTPG.677</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM846.FTPG.677</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HBM849.XMPC.398</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HBM852.NQRZ.779</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM852.NQRZ.779</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HBM864.MFDZ.983</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM864.MFDZ.983</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HBM872.HWNB.835</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM872.HWNB.835</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HBM874.RZDW.757</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HBM875.QHDJ.259</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HBM879.CDHB.995</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>HBM884.QGXZ.934</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM884.QGXZ.934</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HBM885.XWNH.985</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM885.XWNH.985</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>HBM892.SQNT.843</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM892.SQNT.843</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>HBM937.TDGJ.774</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM937.TDGJ.774</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>HBM939.TZWB.238</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM939.TZWB.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>HBM947.VKMP.764</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM947.VKMP.764</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>HBM957.LDNV.942</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM957.LDNV.942</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>HBM958.GHFM.676</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>HBM964.CZLM.657</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.CZLM.657</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>HBM969.MLWK.466</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM969.MLWK.466</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>HBM977.RFWJ.484</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM977.RFWJ.484</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>HBM978.CGGC.988</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.CGGC.988</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>HBM979.HDZH.896</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HBM984.PMZN.942</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PMZN.942</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HBM987.NCDW.845</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM987.NCDW.845</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E78"/>
+  <dataValidations count="1">
+    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$C$1:$C$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -549,7 +2327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +2401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -641,7 +2419,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -654,18 +2432,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM227.THVC.544</t>
+          <t>HBM264.XSVF.528</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM227.THVC.544</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.XSVF.528</t>
         </is>
       </c>
     </row>
@@ -677,7 +2455,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -695,7 +2473,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -713,7 +2491,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -731,7 +2509,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -744,36 +2522,36 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM264.XSVF.528</t>
+          <t>HBM276.PGFS.693</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.XSVF.528</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.PGFS.693</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM264.XSVF.528</t>
+          <t>HBM276.PGFS.693</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.XSVF.528</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.PGFS.693</t>
         </is>
       </c>
     </row>
@@ -785,7 +2563,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -803,7 +2581,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -821,7 +2599,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -834,54 +2612,54 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM276.PGFS.693</t>
+          <t>HBM296.RLWW.755</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.PGFS.693</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM296.RLWW.755</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM276.PGFS.693</t>
+          <t>HBM296.RLWW.755</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.PGFS.693</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM296.RLWW.755</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM276.PGFS.693</t>
+          <t>HBM296.RLWW.755</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.PGFS.693</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM296.RLWW.755</t>
         </is>
       </c>
     </row>
@@ -893,7 +2671,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -906,43 +2684,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM296.RLWW.755</t>
+          <t>HBM297.RSTP.985</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM296.RLWW.755</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM297.RSTP.985</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM296.RLWW.755</t>
+          <t>HBM297.RSTP.985</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM296.RLWW.755</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM297.RSTP.985</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM296.RLWW.755</t>
+          <t>HBM297.RSTP.985</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -953,14 +2731,14 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM296.RLWW.755</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM297.RSTP.985</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM296.RLWW.755</t>
+          <t>HBM297.RSTP.985</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -971,14 +2749,14 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM296.RLWW.755</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM297.RSTP.985</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM297.RSTP.985</t>
+          <t>HBM324.MKTZ.248</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -989,14 +2767,14 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM297.RSTP.985</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM324.MKTZ.248</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM297.RSTP.985</t>
+          <t>HBM324.MKTZ.248</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1007,302 +2785,302 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM297.RSTP.985</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM324.MKTZ.248</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM297.RSTP.985</t>
+          <t>HBM324.MKTZ.248</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM297.RSTP.985</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM324.MKTZ.248</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM297.RSTP.985</t>
+          <t>HBM324.MKTZ.248</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM297.RSTP.985</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM324.MKTZ.248</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM297.RSTP.985</t>
+          <t>HBM324.ZGZM.874</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM297.RSTP.985</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM324.ZGZM.874</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM324.MKTZ.248</t>
+          <t>HBM324.ZGZM.874</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.MKTZ.248</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM324.ZGZM.874</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM324.MKTZ.248</t>
+          <t>HBM324.ZGZM.874</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.MKTZ.248</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM324.ZGZM.874</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM324.MKTZ.248</t>
+          <t>HBM324.ZGZM.874</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.MKTZ.248</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM324.ZGZM.874</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM324.MKTZ.248</t>
+          <t>HBM325.RVSR.229</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.MKTZ.248</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM325.RVSR.229</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM324.MKTZ.248</t>
+          <t>HBM325.RVSR.229</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.MKTZ.248</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM325.RVSR.229</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM324.ZGZM.874</t>
+          <t>HBM325.RVSR.229</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.ZGZM.874</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM325.RVSR.229</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM324.ZGZM.874</t>
+          <t>HBM325.RVSR.229</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.ZGZM.874</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM325.RVSR.229</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM324.ZGZM.874</t>
+          <t>HBM337.ZVPK.369</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.ZGZM.874</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM337.ZVPK.369</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM324.ZGZM.874</t>
+          <t>HBM337.ZVPK.369</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.ZGZM.874</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM337.ZVPK.369</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM324.ZGZM.874</t>
+          <t>HBM337.ZVPK.369</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.ZGZM.874</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM337.ZVPK.369</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM325.RVSR.229</t>
+          <t>HBM337.ZVPK.369</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM325.RVSR.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM337.ZVPK.369</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM325.RVSR.229</t>
+          <t>HBM338.RFPS.979</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM325.RVSR.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM338.RFPS.979</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM325.RVSR.229</t>
+          <t>HBM338.RFPS.979</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM325.RVSR.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM338.RFPS.979</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM325.RVSR.229</t>
+          <t>HBM338.RFPS.979</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1313,14 +3091,14 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM325.RVSR.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM338.RFPS.979</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM325.RVSR.229</t>
+          <t>HBM338.RFPS.979</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1331,14 +3109,14 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM325.RVSR.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM338.RFPS.979</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM337.ZVPK.369</t>
+          <t>HBM344.LLLV.539</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1349,14 +3127,14 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM337.ZVPK.369</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.LLLV.539</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM337.ZVPK.369</t>
+          <t>HBM344.LLLV.539</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1367,500 +3145,500 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM337.ZVPK.369</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.LLLV.539</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM337.ZVPK.369</t>
+          <t>HBM344.LLLV.539</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM337.ZVPK.369</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.LLLV.539</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM337.ZVPK.369</t>
+          <t>HBM344.LLLV.539</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM337.ZVPK.369</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.LLLV.539</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM337.ZVPK.369</t>
+          <t>HBM346.WRZP.637</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM337.ZVPK.369</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM346.WRZP.637</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM338.RFPS.979</t>
+          <t>HBM346.WRZP.637</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM338.RFPS.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM346.WRZP.637</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM338.RFPS.979</t>
+          <t>HBM346.WRZP.637</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM338.RFPS.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM346.WRZP.637</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM338.RFPS.979</t>
+          <t>HBM346.WRZP.637</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM338.RFPS.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM346.WRZP.637</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM338.RFPS.979</t>
+          <t>HBM362.PTQJ.743</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM338.RFPS.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM338.RFPS.979</t>
+          <t>HBM362.PTQJ.743</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM338.RFPS.979</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM344.LLLV.539</t>
+          <t>HBM362.PTQJ.743</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.LLLV.539</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM344.LLLV.539</t>
+          <t>HBM362.PTQJ.743</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.LLLV.539</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM344.LLLV.539</t>
+          <t>HBM362.PTQJ.743</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.LLLV.539</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM344.LLLV.539</t>
+          <t>HBM389.KJJP.875</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.LLLV.539</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.KJJP.875</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM344.LLLV.539</t>
+          <t>HBM389.KJJP.875</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.LLLV.539</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.KJJP.875</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM346.WRZP.637</t>
+          <t>HBM389.KJJP.875</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM346.WRZP.637</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.KJJP.875</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM346.WRZP.637</t>
+          <t>HBM389.KJJP.875</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM346.WRZP.637</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.KJJP.875</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM346.WRZP.637</t>
+          <t>HBM389.MBWW.346</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM346.WRZP.637</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM346.WRZP.637</t>
+          <t>HBM389.MBWW.346</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM346.WRZP.637</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM346.WRZP.637</t>
+          <t>HBM389.MBWW.346</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM346.WRZP.637</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM362.PTQJ.743</t>
+          <t>HBM389.MBWW.346</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM362.PTQJ.743</t>
+          <t>HBM389.MBWW.346</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM362.PTQJ.743</t>
+          <t>HBM396.KGDR.538</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM362.PTQJ.743</t>
+          <t>HBM396.KGDR.538</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM362.PTQJ.743</t>
+          <t>HBM396.KGDR.538</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM362.PTQJ.743</t>
+          <t>HBM396.KGDR.538</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM389.KJJP.875</t>
+          <t>HBM396.KGDR.538</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.KJJP.875</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM389.KJJP.875</t>
+          <t>HBM396.XMSB.623</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.KJJP.875</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.XMSB.623</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM389.KJJP.875</t>
+          <t>HBM396.XMSB.623</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.KJJP.875</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.XMSB.623</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM389.KJJP.875</t>
+          <t>HBM396.XMSB.623</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1871,14 +3649,14 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.KJJP.875</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.XMSB.623</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM389.KJJP.875</t>
+          <t>HBM396.XMSB.623</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1889,374 +3667,374 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.KJJP.875</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM396.XMSB.623</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM389.MBWW.346</t>
+          <t>HBM428.QSKJ.486</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM428.QSKJ.486</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM389.MBWW.346</t>
+          <t>HBM428.QSKJ.486</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM428.QSKJ.486</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM389.MBWW.346</t>
+          <t>HBM428.QSKJ.486</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM428.QSKJ.486</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM389.MBWW.346</t>
+          <t>HBM428.QSKJ.486</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM428.QSKJ.486</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM389.MBWW.346</t>
+          <t>HBM463.JRTB.582</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM389.MBWW.346</t>
+          <t>HBM463.JRTB.582</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM396.KGDR.538</t>
+          <t>HBM463.JRTB.582</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM396.KGDR.538</t>
+          <t>HBM463.JRTB.582</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM396.KGDR.538</t>
+          <t>HBM463.JRTB.582</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM396.KGDR.538</t>
+          <t>HBM473.FKKH.583</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM396.KGDR.538</t>
+          <t>HBM473.FKKH.583</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM396.KGDR.538</t>
+          <t>HBM473.FKKH.583</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM396.XMSB.623</t>
+          <t>HBM473.FKKH.583</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.XMSB.623</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM396.XMSB.623</t>
+          <t>HBM473.FKKH.583</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.XMSB.623</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM396.XMSB.623</t>
+          <t>HBM484.RDZR.494</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.XMSB.623</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM484.RDZR.494</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM396.XMSB.623</t>
+          <t>HBM484.RDZR.494</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.XMSB.623</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM484.RDZR.494</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM396.XMSB.623</t>
+          <t>HBM484.RDZR.494</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.XMSB.623</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM484.RDZR.494</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM428.QSKJ.486</t>
+          <t>HBM484.RDZR.494</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM428.QSKJ.486</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM484.RDZR.494</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM428.QSKJ.486</t>
+          <t>HBM486.KPCH.364</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM428.QSKJ.486</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM486.KPCH.364</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM428.QSKJ.486</t>
+          <t>HBM486.KPCH.364</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM428.QSKJ.486</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM486.KPCH.364</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM428.QSKJ.486</t>
+          <t>HBM486.KPCH.364</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2267,14 +4045,14 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM428.QSKJ.486</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM486.KPCH.364</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM428.QSKJ.486</t>
+          <t>HBM486.KPCH.364</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2285,194 +4063,194 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM428.QSKJ.486</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM486.KPCH.364</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM463.JRTB.582</t>
+          <t>HBM528.QSDN.323</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM528.QSDN.323</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HBM463.JRTB.582</t>
+          <t>HBM528.QSDN.323</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM528.QSDN.323</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HBM463.JRTB.582</t>
+          <t>HBM528.QSDN.323</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM528.QSDN.323</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HBM463.JRTB.582</t>
+          <t>HBM528.QSDN.323</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM528.QSDN.323</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HBM463.JRTB.582</t>
+          <t>HBM535.BDNV.724</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM535.BDNV.724</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HBM463.JRTB.582</t>
+          <t>HBM535.BDNV.724</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM535.BDNV.724</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HBM473.FKKH.583</t>
+          <t>HBM535.BDNV.724</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM535.BDNV.724</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HBM473.FKKH.583</t>
+          <t>HBM535.BDNV.724</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM535.BDNV.724</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HBM473.FKKH.583</t>
+          <t>HBM538.XVLP.889</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM538.XVLP.889</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HBM473.FKKH.583</t>
+          <t>HBM538.XVLP.889</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM538.XVLP.889</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HBM473.FKKH.583</t>
+          <t>HBM538.XVLP.889</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2483,14 +4261,14 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM538.XVLP.889</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HBM473.FKKH.583</t>
+          <t>HBM538.XVLP.889</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2501,14 +4279,14 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM538.XVLP.889</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBM484.RDZR.494</t>
+          <t>HBM593.DVGN.469</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2519,14 +4297,14 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM484.RDZR.494</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM593.DVGN.469</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HBM484.RDZR.494</t>
+          <t>HBM593.DVGN.469</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2537,392 +4315,392 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM484.RDZR.494</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM593.DVGN.469</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HBM484.RDZR.494</t>
+          <t>HBM593.DVGN.469</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM484.RDZR.494</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM593.DVGN.469</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HBM484.RDZR.494</t>
+          <t>HBM593.DVGN.469</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM484.RDZR.494</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM593.DVGN.469</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HBM484.RDZR.494</t>
+          <t>HBM594.SRGW.833</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM484.RDZR.494</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.SRGW.833</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HBM486.KPCH.364</t>
+          <t>HBM594.SRGW.833</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM486.KPCH.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.SRGW.833</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HBM486.KPCH.364</t>
+          <t>HBM594.SRGW.833</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM486.KPCH.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.SRGW.833</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HBM486.KPCH.364</t>
+          <t>HBM594.SRGW.833</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM486.KPCH.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.SRGW.833</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HBM486.KPCH.364</t>
+          <t>HBM623.BNWW.574</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM486.KPCH.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.BNWW.574</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HBM486.KPCH.364</t>
+          <t>HBM623.BNWW.574</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM486.KPCH.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.BNWW.574</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBM528.QSDN.323</t>
+          <t>HBM623.BNWW.574</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM528.QSDN.323</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.BNWW.574</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HBM528.QSDN.323</t>
+          <t>HBM623.BNWW.574</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM528.QSDN.323</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.BNWW.574</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBM528.QSDN.323</t>
+          <t>HBM623.RPMC.638</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM528.QSDN.323</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBM528.QSDN.323</t>
+          <t>HBM623.RPMC.638</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM528.QSDN.323</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBM528.QSDN.323</t>
+          <t>HBM623.RPMC.638</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM528.QSDN.323</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBM535.BDNV.724</t>
+          <t>HBM623.RPMC.638</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM535.BDNV.724</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBM535.BDNV.724</t>
+          <t>HBM623.RPMC.638</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM535.BDNV.724</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBM535.BDNV.724</t>
+          <t>HBM627.RSGW.898</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM535.BDNV.724</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM627.RSGW.898</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HBM535.BDNV.724</t>
+          <t>HBM627.RSGW.898</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM535.BDNV.724</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM627.RSGW.898</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HBM535.BDNV.724</t>
+          <t>HBM627.RSGW.898</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM535.BDNV.724</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM627.RSGW.898</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBM538.XVLP.889</t>
+          <t>HBM627.RSGW.898</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM538.XVLP.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM627.RSGW.898</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HBM538.XVLP.889</t>
+          <t>HBM635.BSPV.599</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM538.XVLP.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM635.BSPV.599</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HBM538.XVLP.889</t>
+          <t>HBM635.BSPV.599</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM538.XVLP.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM635.BSPV.599</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HBM538.XVLP.889</t>
+          <t>HBM635.BSPV.599</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2933,14 +4711,14 @@
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM538.XVLP.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM635.BSPV.599</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HBM538.XVLP.889</t>
+          <t>HBM635.BSPV.599</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2951,68 +4729,68 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM538.XVLP.889</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM635.BSPV.599</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HBM593.DVGN.469</t>
+          <t>HBM636.GVWP.354</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM593.DVGN.469</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HBM593.DVGN.469</t>
+          <t>HBM636.GVWP.354</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM593.DVGN.469</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HBM593.DVGN.469</t>
+          <t>HBM636.GVWP.354</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM593.DVGN.469</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HBM593.DVGN.469</t>
+          <t>HBM636.GVWP.354</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3023,14 +4801,14 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM593.DVGN.469</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HBM593.DVGN.469</t>
+          <t>HBM636.GVWP.354</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3041,68 +4819,68 @@
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM593.DVGN.469</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HBM594.SRGW.833</t>
+          <t>HBM636.ZPTS.368</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.SRGW.833</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>HBM594.SRGW.833</t>
+          <t>HBM636.ZPTS.368</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.SRGW.833</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HBM594.SRGW.833</t>
+          <t>HBM636.ZPTS.368</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.SRGW.833</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>HBM594.SRGW.833</t>
+          <t>HBM636.ZPTS.368</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3113,14 +4891,14 @@
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.SRGW.833</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HBM594.SRGW.833</t>
+          <t>HBM636.ZPTS.368</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3131,14 +4909,14 @@
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.SRGW.833</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HBM623.BNWW.574</t>
+          <t>HBM649.DLZF.463</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3149,14 +4927,14 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.BNWW.574</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM649.DLZF.463</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HBM623.BNWW.574</t>
+          <t>HBM649.DLZF.463</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3167,230 +4945,230 @@
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.BNWW.574</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM649.DLZF.463</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HBM623.BNWW.574</t>
+          <t>HBM649.DLZF.463</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.BNWW.574</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM649.DLZF.463</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HBM623.BNWW.574</t>
+          <t>HBM649.DLZF.463</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.BNWW.574</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM649.DLZF.463</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HBM623.BNWW.574</t>
+          <t>HBM649.XFQG.775</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.BNWW.574</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM649.XFQG.775</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HBM623.RPMC.638</t>
+          <t>HBM649.XFQG.775</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM649.XFQG.775</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HBM623.RPMC.638</t>
+          <t>HBM649.XFQG.775</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM649.XFQG.775</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HBM623.RPMC.638</t>
+          <t>HBM649.XFQG.775</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM649.XFQG.775</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HBM623.RPMC.638</t>
+          <t>HBM653.BLLX.289</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM653.BLLX.289</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HBM623.RPMC.638</t>
+          <t>HBM653.BLLX.289</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM653.BLLX.289</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HBM623.RPMC.638</t>
+          <t>HBM653.BLLX.289</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM653.BLLX.289</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HBM627.RSGW.898</t>
+          <t>HBM653.BLLX.289</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM627.RSGW.898</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM653.BLLX.289</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HBM627.RSGW.898</t>
+          <t>HBM654.GRHB.837</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM627.RSGW.898</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM654.GRHB.837</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HBM627.RSGW.898</t>
+          <t>HBM654.GRHB.837</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM627.RSGW.898</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM654.GRHB.837</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HBM627.RSGW.898</t>
+          <t>HBM654.GRHB.837</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3401,14 +5179,14 @@
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM627.RSGW.898</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM654.GRHB.837</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HBM627.RSGW.898</t>
+          <t>HBM654.GRHB.837</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3419,14 +5197,14 @@
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM627.RSGW.898</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM654.GRHB.837</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HBM635.BSPV.599</t>
+          <t>HBM655.VSLD.867</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3437,14 +5215,14 @@
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM635.BSPV.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM655.VSLD.867</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HBM635.BSPV.599</t>
+          <t>HBM655.VSLD.867</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3455,338 +5233,338 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM635.BSPV.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM655.VSLD.867</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HBM635.BSPV.599</t>
+          <t>HBM655.VSLD.867</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM635.BSPV.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM655.VSLD.867</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HBM635.BSPV.599</t>
+          <t>HBM655.VSLD.867</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM635.BSPV.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM655.VSLD.867</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HBM635.BSPV.599</t>
+          <t>HBM662.PMPZ.644</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM635.BSPV.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HBM636.GVWP.354</t>
+          <t>HBM662.PMPZ.644</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>HBM636.GVWP.354</t>
+          <t>HBM662.PMPZ.644</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>HBM636.GVWP.354</t>
+          <t>HBM662.PMPZ.644</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>HBM636.GVWP.354</t>
+          <t>HBM662.PMPZ.644</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>HBM636.GVWP.354</t>
+          <t>HBM673.JJRZ.435</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM673.JJRZ.435</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>HBM636.GVWP.354</t>
+          <t>HBM673.JJRZ.435</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM673.JJRZ.435</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HBM636.ZPTS.368</t>
+          <t>HBM673.JJRZ.435</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM673.JJRZ.435</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HBM636.ZPTS.368</t>
+          <t>HBM673.JJRZ.435</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM673.JJRZ.435</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>HBM636.ZPTS.368</t>
+          <t>HBM676.SNVK.793</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HBM636.ZPTS.368</t>
+          <t>HBM676.SNVK.793</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>HBM636.ZPTS.368</t>
+          <t>HBM676.SNVK.793</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>HBM636.ZPTS.368</t>
+          <t>HBM676.SNVK.793</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>HBM649.DLZF.463</t>
+          <t>HBM676.SNVK.793</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM649.DLZF.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HBM649.DLZF.463</t>
+          <t>HBM685.HZFG.838</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM649.DLZF.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM685.HZFG.838</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>HBM649.DLZF.463</t>
+          <t>HBM685.HZFG.838</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM649.DLZF.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM685.HZFG.838</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HBM649.DLZF.463</t>
+          <t>HBM685.HZFG.838</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3797,14 +5575,14 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM649.DLZF.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM685.HZFG.838</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>HBM649.DLZF.463</t>
+          <t>HBM685.HZFG.838</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3815,68 +5593,68 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM649.DLZF.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM685.HZFG.838</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>HBM649.XFQG.775</t>
+          <t>HBM725.PDDC.788</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM649.XFQG.775</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>HBM649.XFQG.775</t>
+          <t>HBM725.PDDC.788</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM649.XFQG.775</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>HBM649.XFQG.775</t>
+          <t>HBM725.PDDC.788</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM649.XFQG.775</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>HBM649.XFQG.775</t>
+          <t>HBM725.PDDC.788</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3887,14 +5665,14 @@
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM649.XFQG.775</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>HBM649.XFQG.775</t>
+          <t>HBM725.PDDC.788</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3905,14 +5683,14 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM649.XFQG.775</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>HBM653.BLLX.289</t>
+          <t>HBM738.MXDD.328</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3923,14 +5701,14 @@
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM653.BLLX.289</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM738.MXDD.328</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>HBM653.BLLX.289</t>
+          <t>HBM738.MXDD.328</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3941,410 +5719,410 @@
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM653.BLLX.289</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM738.MXDD.328</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HBM653.BLLX.289</t>
+          <t>HBM738.MXDD.328</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM653.BLLX.289</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM738.MXDD.328</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>HBM653.BLLX.289</t>
+          <t>HBM738.MXDD.328</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM653.BLLX.289</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM738.MXDD.328</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>HBM653.BLLX.289</t>
+          <t>HBM745.BCRF.958</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM653.BLLX.289</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM745.BCRF.958</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>HBM654.GRHB.837</t>
+          <t>HBM745.BCRF.958</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM654.GRHB.837</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM745.BCRF.958</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>HBM654.GRHB.837</t>
+          <t>HBM745.BCRF.958</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM654.GRHB.837</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM745.BCRF.958</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>HBM654.GRHB.837</t>
+          <t>HBM745.BCRF.958</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM654.GRHB.837</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM745.BCRF.958</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>HBM654.GRHB.837</t>
+          <t>HBM759.LQKN.226</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM654.GRHB.837</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM759.LQKN.226</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HBM654.GRHB.837</t>
+          <t>HBM759.LQKN.226</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM654.GRHB.837</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM759.LQKN.226</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HBM655.VSLD.867</t>
+          <t>HBM759.LQKN.226</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM655.VSLD.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM759.LQKN.226</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>HBM655.VSLD.867</t>
+          <t>HBM759.LQKN.226</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM655.VSLD.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM759.LQKN.226</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>HBM655.VSLD.867</t>
+          <t>HBM783.GDKK.879</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM655.VSLD.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>HBM655.VSLD.867</t>
+          <t>HBM783.GDKK.879</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM655.VSLD.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>HBM655.VSLD.867</t>
+          <t>HBM783.GDKK.879</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM655.VSLD.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>HBM662.PMPZ.644</t>
+          <t>HBM783.GDKK.879</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>HBM662.PMPZ.644</t>
+          <t>HBM783.GDKK.879</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>HBM662.PMPZ.644</t>
+          <t>HBM783.GJWP.694</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>HBM662.PMPZ.644</t>
+          <t>HBM783.GJWP.694</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>HBM662.PMPZ.644</t>
+          <t>HBM783.GJWP.694</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>HBM662.PMPZ.644</t>
+          <t>HBM783.GJWP.694</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>HBM673.JJRZ.435</t>
+          <t>HBM783.GJWP.694</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM673.JJRZ.435</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>HBM673.JJRZ.435</t>
+          <t>HBM796.FZWQ.899</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM673.JJRZ.435</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM796.FZWQ.899</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>HBM673.JJRZ.435</t>
+          <t>HBM796.FZWQ.899</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM673.JJRZ.435</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM796.FZWQ.899</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HBM673.JJRZ.435</t>
+          <t>HBM796.FZWQ.899</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4355,14 +6133,14 @@
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM673.JJRZ.435</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM796.FZWQ.899</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HBM673.JJRZ.435</t>
+          <t>HBM796.FZWQ.899</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4373,284 +6151,284 @@
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM673.JJRZ.435</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM796.FZWQ.899</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>HBM676.SNVK.793</t>
+          <t>HBM832.FQKR.463</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.FQKR.463</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>HBM676.SNVK.793</t>
+          <t>HBM832.FQKR.463</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.FQKR.463</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>HBM676.SNVK.793</t>
+          <t>HBM832.FQKR.463</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.FQKR.463</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>HBM676.SNVK.793</t>
+          <t>HBM832.FQKR.463</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.FQKR.463</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>HBM676.SNVK.793</t>
+          <t>HBM833.DBGG.252</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>HBM676.SNVK.793</t>
+          <t>HBM833.DBGG.252</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>HBM685.HZFG.838</t>
+          <t>HBM833.DBGG.252</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM685.HZFG.838</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>HBM685.HZFG.838</t>
+          <t>HBM833.DBGG.252</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM685.HZFG.838</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>HBM685.HZFG.838</t>
+          <t>HBM833.DBGG.252</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM685.HZFG.838</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>HBM685.HZFG.838</t>
+          <t>HBM836.VTFP.364</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM685.HZFG.838</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM836.VTFP.364</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>HBM685.HZFG.838</t>
+          <t>HBM836.VTFP.364</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM685.HZFG.838</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM836.VTFP.364</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>HBM725.PDDC.788</t>
+          <t>HBM836.VTFP.364</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM836.VTFP.364</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>HBM725.PDDC.788</t>
+          <t>HBM836.VTFP.364</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM836.VTFP.364</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>HBM725.PDDC.788</t>
+          <t>HBM837.XGBD.427</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM837.XGBD.427</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>HBM725.PDDC.788</t>
+          <t>HBM837.XGBD.427</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM837.XGBD.427</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>HBM725.PDDC.788</t>
+          <t>HBM837.XGBD.427</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4661,14 +6439,14 @@
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM837.XGBD.427</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>HBM725.PDDC.788</t>
+          <t>HBM837.XGBD.427</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -4679,14 +6457,14 @@
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM837.XGBD.427</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>HBM738.MXDD.328</t>
+          <t>HBM838.HGWL.498</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -4697,14 +6475,14 @@
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM738.MXDD.328</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM838.HGWL.498</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>HBM738.MXDD.328</t>
+          <t>HBM838.HGWL.498</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -4715,320 +6493,320 @@
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM738.MXDD.328</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM838.HGWL.498</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>HBM738.MXDD.328</t>
+          <t>HBM838.HGWL.498</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM738.MXDD.328</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM838.HGWL.498</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>HBM738.MXDD.328</t>
+          <t>HBM838.HGWL.498</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM738.MXDD.328</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM838.HGWL.498</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>HBM738.MXDD.328</t>
+          <t>HBM846.FTPG.677</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM738.MXDD.328</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM846.FTPG.677</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>HBM745.BCRF.958</t>
+          <t>HBM846.FTPG.677</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM745.BCRF.958</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM846.FTPG.677</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>HBM745.BCRF.958</t>
+          <t>HBM846.FTPG.677</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM745.BCRF.958</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM846.FTPG.677</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>HBM745.BCRF.958</t>
+          <t>HBM846.FTPG.677</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM745.BCRF.958</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM846.FTPG.677</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>HBM745.BCRF.958</t>
+          <t>HBM849.XMPC.398</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM745.BCRF.958</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>HBM745.BCRF.958</t>
+          <t>HBM849.XMPC.398</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM745.BCRF.958</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>HBM759.LQKN.226</t>
+          <t>HBM849.XMPC.398</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.LQKN.226</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>HBM759.LQKN.226</t>
+          <t>HBM849.XMPC.398</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.LQKN.226</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>HBM759.LQKN.226</t>
+          <t>HBM849.XMPC.398</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.LQKN.226</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>HBM759.LQKN.226</t>
+          <t>HBM852.NQRZ.779</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.LQKN.226</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM852.NQRZ.779</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>HBM759.LQKN.226</t>
+          <t>HBM852.NQRZ.779</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.LQKN.226</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM852.NQRZ.779</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>HBM783.GDKK.879</t>
+          <t>HBM852.NQRZ.779</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM852.NQRZ.779</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>HBM783.GDKK.879</t>
+          <t>HBM852.NQRZ.779</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM852.NQRZ.779</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>HBM783.GDKK.879</t>
+          <t>HBM864.MFDZ.983</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM864.MFDZ.983</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>HBM783.GDKK.879</t>
+          <t>HBM864.MFDZ.983</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM864.MFDZ.983</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>HBM783.GDKK.879</t>
+          <t>HBM864.MFDZ.983</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5039,14 +6817,14 @@
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM864.MFDZ.983</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>HBM783.GDKK.879</t>
+          <t>HBM864.MFDZ.983</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5057,464 +6835,464 @@
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM864.MFDZ.983</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>HBM783.GJWP.694</t>
+          <t>HBM872.HWNB.835</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM872.HWNB.835</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>HBM783.GJWP.694</t>
+          <t>HBM872.HWNB.835</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM872.HWNB.835</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>HBM783.GJWP.694</t>
+          <t>HBM872.HWNB.835</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM872.HWNB.835</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>HBM783.GJWP.694</t>
+          <t>HBM872.HWNB.835</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM872.HWNB.835</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>HBM783.GJWP.694</t>
+          <t>HBM874.RZDW.757</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>HBM783.GJWP.694</t>
+          <t>HBM874.RZDW.757</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>HBM796.FZWQ.899</t>
+          <t>HBM874.RZDW.757</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM796.FZWQ.899</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>HBM796.FZWQ.899</t>
+          <t>HBM874.RZDW.757</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM796.FZWQ.899</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>HBM796.FZWQ.899</t>
+          <t>HBM874.RZDW.757</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM796.FZWQ.899</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>HBM796.FZWQ.899</t>
+          <t>HBM875.QHDJ.259</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM796.FZWQ.899</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>HBM796.FZWQ.899</t>
+          <t>HBM875.QHDJ.259</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM796.FZWQ.899</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>HBM832.FQKR.463</t>
+          <t>HBM875.QHDJ.259</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.FQKR.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>HBM832.FQKR.463</t>
+          <t>HBM875.QHDJ.259</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.FQKR.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>HBM832.FQKR.463</t>
+          <t>HBM875.QHDJ.259</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.FQKR.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>HBM832.FQKR.463</t>
+          <t>HBM879.CDHB.995</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.FQKR.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>HBM832.FQKR.463</t>
+          <t>HBM879.CDHB.995</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.FQKR.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>HBM833.DBGG.252</t>
+          <t>HBM879.CDHB.995</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>HBM833.DBGG.252</t>
+          <t>HBM879.CDHB.995</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>HBM833.DBGG.252</t>
+          <t>HBM879.CDHB.995</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>HBM833.DBGG.252</t>
+          <t>HBM884.QGXZ.934</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM884.QGXZ.934</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>HBM833.DBGG.252</t>
+          <t>HBM884.QGXZ.934</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM884.QGXZ.934</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>HBM833.DBGG.252</t>
+          <t>HBM884.QGXZ.934</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM884.QGXZ.934</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>HBM836.VTFP.364</t>
+          <t>HBM884.QGXZ.934</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM836.VTFP.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM884.QGXZ.934</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>HBM836.VTFP.364</t>
+          <t>HBM885.XWNH.985</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM836.VTFP.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM885.XWNH.985</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>HBM836.VTFP.364</t>
+          <t>HBM885.XWNH.985</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM836.VTFP.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM885.XWNH.985</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>HBM836.VTFP.364</t>
+          <t>HBM885.XWNH.985</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -5525,14 +7303,14 @@
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM836.VTFP.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM885.XWNH.985</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>HBM836.VTFP.364</t>
+          <t>HBM885.XWNH.985</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -5543,14 +7321,14 @@
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM836.VTFP.364</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM885.XWNH.985</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>HBM837.XGBD.427</t>
+          <t>HBM892.SQNT.843</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5561,14 +7339,14 @@
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM837.XGBD.427</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM892.SQNT.843</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>HBM837.XGBD.427</t>
+          <t>HBM892.SQNT.843</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -5579,266 +7357,266 @@
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM837.XGBD.427</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM892.SQNT.843</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>HBM837.XGBD.427</t>
+          <t>HBM892.SQNT.843</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM837.XGBD.427</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM892.SQNT.843</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>HBM837.XGBD.427</t>
+          <t>HBM892.SQNT.843</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM837.XGBD.427</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM892.SQNT.843</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>HBM837.XGBD.427</t>
+          <t>HBM937.TDGJ.774</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM837.XGBD.427</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM937.TDGJ.774</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>HBM838.HGWL.498</t>
+          <t>HBM937.TDGJ.774</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM838.HGWL.498</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM937.TDGJ.774</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>HBM838.HGWL.498</t>
+          <t>HBM937.TDGJ.774</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM838.HGWL.498</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM937.TDGJ.774</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>HBM838.HGWL.498</t>
+          <t>HBM937.TDGJ.774</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM838.HGWL.498</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM937.TDGJ.774</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>HBM838.HGWL.498</t>
+          <t>HBM939.TZWB.238</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM838.HGWL.498</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM939.TZWB.238</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>HBM838.HGWL.498</t>
+          <t>HBM939.TZWB.238</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM838.HGWL.498</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM939.TZWB.238</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>HBM846.FTPG.677</t>
+          <t>HBM939.TZWB.238</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM846.FTPG.677</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM939.TZWB.238</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>HBM846.FTPG.677</t>
+          <t>HBM939.TZWB.238</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM846.FTPG.677</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM939.TZWB.238</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>HBM846.FTPG.677</t>
+          <t>HBM947.VKMP.764</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM846.FTPG.677</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM947.VKMP.764</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>HBM846.FTPG.677</t>
+          <t>HBM947.VKMP.764</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM846.FTPG.677</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM947.VKMP.764</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>HBM846.FTPG.677</t>
+          <t>HBM947.VKMP.764</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM846.FTPG.677</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM947.VKMP.764</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>HBM849.XMPC.398</t>
+          <t>HBM947.VKMP.764</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM947.VKMP.764</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>HBM849.XMPC.398</t>
+          <t>HBM957.LDNV.942</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -5849,14 +7627,14 @@
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM957.LDNV.942</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>HBM849.XMPC.398</t>
+          <t>HBM957.LDNV.942</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -5867,68 +7645,68 @@
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM957.LDNV.942</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>HBM849.XMPC.398</t>
+          <t>HBM957.LDNV.942</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM957.LDNV.942</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>HBM849.XMPC.398</t>
+          <t>HBM957.LDNV.942</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM957.LDNV.942</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>HBM849.XMPC.398</t>
+          <t>HBM958.GHFM.676</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>HBM852.NQRZ.779</t>
+          <t>HBM958.GHFM.676</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -5939,14 +7717,14 @@
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM852.NQRZ.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>HBM852.NQRZ.779</t>
+          <t>HBM958.GHFM.676</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -5957,266 +7735,266 @@
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM852.NQRZ.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>HBM852.NQRZ.779</t>
+          <t>HBM958.GHFM.676</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM852.NQRZ.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>HBM852.NQRZ.779</t>
+          <t>HBM958.GHFM.676</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM852.NQRZ.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>HBM852.NQRZ.779</t>
+          <t>HBM964.CZLM.657</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM852.NQRZ.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.CZLM.657</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>HBM864.MFDZ.983</t>
+          <t>HBM964.CZLM.657</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM864.MFDZ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.CZLM.657</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>HBM864.MFDZ.983</t>
+          <t>HBM964.CZLM.657</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM864.MFDZ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.CZLM.657</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>HBM864.MFDZ.983</t>
+          <t>HBM964.CZLM.657</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM864.MFDZ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.CZLM.657</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>HBM864.MFDZ.983</t>
+          <t>HBM969.MLWK.466</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM864.MFDZ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM969.MLWK.466</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>HBM864.MFDZ.983</t>
+          <t>HBM969.MLWK.466</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM864.MFDZ.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM969.MLWK.466</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>HBM872.HWNB.835</t>
+          <t>HBM969.MLWK.466</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM872.HWNB.835</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM969.MLWK.466</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>HBM872.HWNB.835</t>
+          <t>HBM969.MLWK.466</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM872.HWNB.835</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM969.MLWK.466</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>HBM872.HWNB.835</t>
+          <t>HBM977.RFWJ.484</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM872.HWNB.835</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM977.RFWJ.484</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>HBM872.HWNB.835</t>
+          <t>HBM977.RFWJ.484</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM872.HWNB.835</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM977.RFWJ.484</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>HBM872.HWNB.835</t>
+          <t>HBM977.RFWJ.484</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM872.HWNB.835</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM977.RFWJ.484</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>HBM874.RZDW.757</t>
+          <t>HBM977.RFWJ.484</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM977.RFWJ.484</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>HBM874.RZDW.757</t>
+          <t>HBM978.CGGC.988</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -6227,14 +8005,14 @@
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.CGGC.988</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>HBM874.RZDW.757</t>
+          <t>HBM978.CGGC.988</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -6245,248 +8023,248 @@
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.CGGC.988</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>HBM874.RZDW.757</t>
+          <t>HBM978.CGGC.988</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.CGGC.988</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>HBM874.RZDW.757</t>
+          <t>HBM978.CGGC.988</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.CGGC.988</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>HBM874.RZDW.757</t>
+          <t>HBM979.HDZH.896</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>HBM875.QHDJ.259</t>
+          <t>HBM979.HDZH.896</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>HBM875.QHDJ.259</t>
+          <t>HBM979.HDZH.896</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>HBM875.QHDJ.259</t>
+          <t>HBM979.HDZH.896</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>HBM875.QHDJ.259</t>
+          <t>HBM979.HDZH.896</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>HBM875.QHDJ.259</t>
+          <t>HBM984.PMZN.942</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PMZN.942</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>HBM875.QHDJ.259</t>
+          <t>HBM984.PMZN.942</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PMZN.942</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>HBM879.CDHB.995</t>
+          <t>HBM984.PMZN.942</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PMZN.942</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>HBM879.CDHB.995</t>
+          <t>HBM984.PMZN.942</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>is_batch_staining_done</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PMZN.942</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>HBM879.CDHB.995</t>
+          <t>HBM987.NCDW.845</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>is_image_preprocessing_required</t>
+          <t>is_batch_staining_done</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM987.NCDW.845</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>HBM879.CDHB.995</t>
+          <t>HBM987.NCDW.845</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>is_staining_automated</t>
+          <t>is_image_preprocessing_required</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM987.NCDW.845</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>HBM879.CDHB.995</t>
+          <t>HBM987.NCDW.845</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -6497,14 +8275,14 @@
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM987.NCDW.845</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>HBM879.CDHB.995</t>
+          <t>HBM987.NCDW.845</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -6515,1409 +8293,20 @@
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>HBM884.QGXZ.934</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr"/>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM884.QGXZ.934</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>HBM884.QGXZ.934</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM884.QGXZ.934</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>HBM884.QGXZ.934</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM884.QGXZ.934</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>HBM884.QGXZ.934</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM884.QGXZ.934</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>HBM884.QGXZ.934</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM884.QGXZ.934</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>HBM885.XWNH.985</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM885.XWNH.985</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>HBM885.XWNH.985</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM885.XWNH.985</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>HBM885.XWNH.985</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM885.XWNH.985</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>HBM885.XWNH.985</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM885.XWNH.985</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>HBM885.XWNH.985</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM885.XWNH.985</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>HBM892.SQNT.843</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM892.SQNT.843</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>HBM892.SQNT.843</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr"/>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM892.SQNT.843</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>HBM892.SQNT.843</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr"/>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM892.SQNT.843</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>HBM892.SQNT.843</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM892.SQNT.843</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>HBM892.SQNT.843</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr"/>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM892.SQNT.843</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>HBM937.TDGJ.774</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM937.TDGJ.774</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>HBM937.TDGJ.774</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr"/>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM937.TDGJ.774</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>HBM937.TDGJ.774</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM937.TDGJ.774</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>HBM937.TDGJ.774</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr"/>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM937.TDGJ.774</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>HBM937.TDGJ.774</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr"/>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM937.TDGJ.774</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>HBM939.TZWB.238</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM939.TZWB.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>HBM939.TZWB.238</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM939.TZWB.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>HBM939.TZWB.238</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr"/>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM939.TZWB.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>HBM939.TZWB.238</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr"/>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM939.TZWB.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>HBM939.TZWB.238</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr"/>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM939.TZWB.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>HBM947.VKMP.764</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr"/>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM947.VKMP.764</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>HBM947.VKMP.764</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr"/>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM947.VKMP.764</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>HBM947.VKMP.764</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr"/>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM947.VKMP.764</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>HBM947.VKMP.764</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr"/>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM947.VKMP.764</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>HBM947.VKMP.764</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr"/>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM947.VKMP.764</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>HBM957.LDNV.942</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr"/>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM957.LDNV.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>HBM957.LDNV.942</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr"/>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM957.LDNV.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>HBM957.LDNV.942</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM957.LDNV.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>HBM957.LDNV.942</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr"/>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM957.LDNV.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>HBM957.LDNV.942</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr"/>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM957.LDNV.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>HBM958.GHFM.676</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>contributors_path</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr"/>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>HBM958.GHFM.676</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>HBM958.GHFM.676</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>HBM958.GHFM.676</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>HBM958.GHFM.676</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>HBM958.GHFM.676</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>HBM964.CZLM.657</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.CZLM.657</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>HBM964.CZLM.657</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.CZLM.657</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>HBM964.CZLM.657</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.CZLM.657</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>HBM964.CZLM.657</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.CZLM.657</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>HBM964.CZLM.657</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.CZLM.657</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>HBM969.MLWK.466</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM969.MLWK.466</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>HBM969.MLWK.466</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM969.MLWK.466</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>HBM969.MLWK.466</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM969.MLWK.466</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>HBM969.MLWK.466</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM969.MLWK.466</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>HBM969.MLWK.466</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM969.MLWK.466</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>HBM977.RFWJ.484</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM977.RFWJ.484</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>HBM977.RFWJ.484</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM977.RFWJ.484</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>HBM977.RFWJ.484</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM977.RFWJ.484</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>HBM977.RFWJ.484</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM977.RFWJ.484</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>HBM977.RFWJ.484</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM977.RFWJ.484</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>HBM978.CGGC.988</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.CGGC.988</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>HBM978.CGGC.988</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.CGGC.988</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>HBM978.CGGC.988</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.CGGC.988</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>HBM978.CGGC.988</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.CGGC.988</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>HBM978.CGGC.988</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.CGGC.988</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>HBM979.HDZH.896</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>contributors_path</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>HBM979.HDZH.896</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>HBM979.HDZH.896</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>HBM979.HDZH.896</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>HBM979.HDZH.896</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>HBM979.HDZH.896</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>HBM984.PMZN.942</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PMZN.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>HBM984.PMZN.942</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PMZN.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>HBM984.PMZN.942</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PMZN.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>HBM984.PMZN.942</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PMZN.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>HBM984.PMZN.942</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PMZN.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>HBM987.NCDW.845</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>is_batch_staining_done</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM987.NCDW.845</t>
         </is>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>HBM987.NCDW.845</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>is_image_preprocessing_required</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM987.NCDW.845</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>HBM987.NCDW.845</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM987.NCDW.845</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>HBM987.NCDW.845</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM987.NCDW.845</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>HBM987.NCDW.845</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM987.NCDW.845</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D408"/>
-  <dataValidations count="4">
-    <dataValidation sqref="C2 C8 C14 C19 C24 C29 C34 C39 C44 C49 C54 C59 C65 C70 C76 C82 C87 C92 C98 C104 C109 C114 C119 C124 C129 C134 C139 C144 C150 C155 C160 C166 C172 C177 C182 C187 C192 C197 C203 C208 C214 C219 C225 C230 C235 C240 C246 C252 C257 C262 C268 C273 C278 C283 C288 C294 C299 C304 C309 C315 C321 C327 C332 C337 C342 C347 C352 C357 C362 C368 C373 C378 C383 C388 C394 C399 C404" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:D331"/>
+  <dataValidations count="3">
+    <dataValidation sqref="C2 C7 C12 C16 C20 C24 C28 C32 C36 C40 C44 C48 C53 C57 C62 C67 C71 C75 C80 C85 C89 C93 C97 C101 C105 C109 C113 C117 C122 C126 C130 C135 C140 C144 C148 C152 C156 C160 C165 C169 C174 C178 C183 C187 C191 C195 C200 C205 C209 C213 C218 C222 C226 C230 C234 C239 C243 C247 C251 C256 C261 C266 C270 C274 C278 C282 C286 C290 C294 C299 C303 C307 C311 C315 C320 C324 C328" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation sqref="C3 C9 C15 C20 C25 C30 C35 C40 C45 C50 C55 C60 C66 C71 C77 C83 C88 C93 C99 C105 C110 C115 C120 C125 C130 C135 C140 C145 C151 C156 C161 C167 C173 C178 C183 C188 C193 C198 C204 C209 C215 C220 C226 C231 C236 C241 C247 C253 C258 C263 C269 C274 C279 C284 C289 C295 C300 C305 C310 C316 C322 C328 C333 C338 C343 C348 C353 C358 C363 C369 C374 C379 C384 C389 C395 C400 C405" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="C3 C8 C13 C17 C21 C25 C29 C33 C37 C41 C45 C49 C54 C58 C63 C68 C72 C76 C81 C86 C90 C94 C98 C102 C106 C110 C114 C118 C123 C127 C131 C136 C141 C145 C149 C153 C157 C161 C166 C170 C175 C179 C184 C188 C192 C196 C201 C206 C210 C214 C219 C223 C227 C231 C235 C240 C244 C248 C252 C257 C262 C267 C271 C275 C279 C283 C287 C291 C295 C300 C304 C308 C312 C316 C321 C325 C329" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$2</formula1>
     </dataValidation>
-    <dataValidation sqref="C4 C10 C16 C21 C26 C31 C36 C41 C46 C51 C56 C61 C67 C72 C78 C84 C89 C94 C100 C106 C111 C116 C121 C126 C131 C136 C141 C146 C152 C157 C162 C168 C174 C179 C184 C189 C194 C199 C205 C210 C216 C221 C227 C232 C237 C242 C248 C254 C259 C264 C270 C275 C280 C285 C290 C296 C301 C306 C311 C317 C323 C329 C334 C339 C344 C349 C354 C359 C364 C370 C375 C380 C385 C390 C396 C401 C406" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$2</formula1>
-    </dataValidation>
-    <dataValidation sqref="C5 C11 C17 C22 C27 C32 C37 C42 C47 C52 C57 C62 C68 C73 C79 C85 C90 C95 C101 C107 C112 C117 C122 C127 C132 C137 C142 C147 C153 C158 C163 C169 C175 C180 C185 C190 C195 C200 C206 C211 C217 C222 C228 C233 C238 C243 C249 C255 C260 C265 C271 C276 C281 C286 C291 C297 C302 C307 C312 C318 C324 C330 C335 C340 C345 C350 C355 C360 C365 C371 C376 C381 C386 C391 C397 C402 C407" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="C4 C9 C14 C18 C22 C26 C30 C34 C38 C42 C46 C50 C55 C59 C64 C69 C73 C77 C82 C87 C91 C95 C99 C103 C107 C111 C115 C119 C124 C128 C132 C137 C142 C146 C150 C154 C158 C162 C167 C171 C176 C180 C185 C189 C193 C197 C202 C207 C211 C215 C220 C224 C228 C232 C236 C241 C245 C249 C253 C258 C263 C268 C272 C276 C280 C284 C288 C292 C296 C301 C305 C309 C313 C317 C322 C326 C330" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/metadata/histology/todo/Vanderbilt TMC (Histology).xlsx
+++ b/metadata/histology/todo/Vanderbilt TMC (Histology).xlsx
@@ -13,7 +13,6 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$331</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$80</definedName>
   </definedNames>
@@ -420,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +440,6 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
           <t>hour</t>
         </is>
       </c>
@@ -463,31 +457,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>month</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -504,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,1784 +528,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HBM227.THVC.544</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM227.THVC.544</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HBM264.XSVF.528</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.XSVF.528</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HBM276.PGFS.693</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.PGFS.693</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HBM296.RLWW.755</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM296.RLWW.755</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HBM297.RSTP.985</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM297.RSTP.985</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HBM324.MKTZ.248</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.MKTZ.248</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HBM324.ZGZM.874</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM324.ZGZM.874</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HBM325.RVSR.229</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM325.RVSR.229</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HBM337.ZVPK.369</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM337.ZVPK.369</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HBM338.RFPS.979</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM338.RFPS.979</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>HBM344.LLLV.539</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.LLLV.539</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>HBM346.WRZP.637</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM346.WRZP.637</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>HBM362.PTQJ.743</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM362.PTQJ.743</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HBM389.KJJP.875</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.KJJP.875</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>HBM389.MBWW.346</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM389.MBWW.346</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HBM396.KGDR.538</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.KGDR.538</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>HBM396.XMSB.623</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM396.XMSB.623</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>HBM428.QSKJ.486</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM428.QSKJ.486</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>HBM463.JRTB.582</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM463.JRTB.582</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>HBM473.FKKH.583</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM473.FKKH.583</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>HBM484.RDZR.494</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM484.RDZR.494</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>HBM486.KPCH.364</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM486.KPCH.364</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>HBM528.QSDN.323</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM528.QSDN.323</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>HBM535.BDNV.724</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM535.BDNV.724</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>HBM538.XVLP.889</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM538.XVLP.889</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>HBM593.DVGN.469</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM593.DVGN.469</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>HBM594.SRGW.833</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.SRGW.833</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>HBM623.BNWW.574</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.BNWW.574</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>HBM623.RPMC.638</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM623.RPMC.638</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>HBM627.RSGW.898</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM627.RSGW.898</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>HBM635.BSPV.599</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM635.BSPV.599</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>HBM636.GVWP.354</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.GVWP.354</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>HBM636.ZPTS.368</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM636.ZPTS.368</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>HBM649.DLZF.463</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM649.DLZF.463</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>HBM649.XFQG.775</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM649.XFQG.775</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>HBM653.BLLX.289</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM653.BLLX.289</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>HBM654.GRHB.837</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM654.GRHB.837</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>HBM655.VSLD.867</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM655.VSLD.867</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>HBM662.PMPZ.644</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.PMPZ.644</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HBM673.JJRZ.435</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM673.JJRZ.435</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HBM676.SNVK.793</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM676.SNVK.793</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>HBM685.HZFG.838</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM685.HZFG.838</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>HBM725.PDDC.788</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM725.PDDC.788</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>HBM738.MXDD.328</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM738.MXDD.328</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>HBM745.BCRF.958</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM745.BCRF.958</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>HBM759.LQKN.226</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.LQKN.226</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>HBM783.GDKK.879</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GDKK.879</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>HBM783.GJWP.694</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM783.GJWP.694</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>HBM796.FZWQ.899</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM796.FZWQ.899</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>HBM832.FQKR.463</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.FQKR.463</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>HBM833.DBGG.252</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM833.DBGG.252</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>HBM836.VTFP.364</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM836.VTFP.364</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>HBM837.XGBD.427</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM837.XGBD.427</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>HBM838.HGWL.498</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM838.HGWL.498</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>HBM846.FTPG.677</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM846.FTPG.677</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>HBM849.XMPC.398</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM849.XMPC.398</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HBM852.NQRZ.779</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM852.NQRZ.779</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>HBM864.MFDZ.983</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM864.MFDZ.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>HBM872.HWNB.835</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM872.HWNB.835</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>HBM874.RZDW.757</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM874.RZDW.757</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>HBM875.QHDJ.259</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.QHDJ.259</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>HBM879.CDHB.995</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM879.CDHB.995</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>HBM884.QGXZ.934</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM884.QGXZ.934</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>HBM885.XWNH.985</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM885.XWNH.985</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>HBM892.SQNT.843</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM892.SQNT.843</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>HBM937.TDGJ.774</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM937.TDGJ.774</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>HBM939.TZWB.238</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM939.TZWB.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>HBM947.VKMP.764</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM947.VKMP.764</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>HBM957.LDNV.942</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM957.LDNV.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>HBM958.GHFM.676</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM958.GHFM.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>HBM964.CZLM.657</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.CZLM.657</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>HBM969.MLWK.466</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM969.MLWK.466</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>HBM977.RFWJ.484</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM977.RFWJ.484</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>HBM978.CGGC.988</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.CGGC.988</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>HBM979.HDZH.896</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM979.HDZH.896</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>HBM984.PMZN.942</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PMZN.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>HBM987.NCDW.845</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>is_staining_automated</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM987.NCDW.845</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E78"/>
-  <dataValidations count="1">
-    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$2</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -8307,7 +6519,7 @@
       <formula1>_validation_data!$B$1:$B$2</formula1>
     </dataValidation>
     <dataValidation sqref="C4 C9 C14 C18 C22 C26 C30 C34 C38 C42 C46 C50 C55 C59 C64 C69 C73 C77 C82 C87 C91 C95 C99 C103 C107 C111 C115 C119 C124 C128 C132 C137 C142 C146 C150 C154 C158 C162 C167 C171 C176 C180 C185 C189 C193 C197 C202 C207 C211 C215 C220 C224 C228 C232 C236 C241 C245 C249 C253 C258 C263 C268 C272 C276 C280 C284 C288 C292 C296 C301 C305 C309 C313 C317 C322 C326 C330" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$5</formula1>
+      <formula1>_validation_data!$C$1:$C$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
